--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_45.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_45.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_0</t>
+          <t>model_1_45_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9967149220537704</v>
+        <v>0.9147788372892731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7212565107907951</v>
+        <v>0.7488766844439969</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7166538565810538</v>
+        <v>0.7436587033661314</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9967480196586984</v>
+        <v>0.8766812646109429</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01378676938812526</v>
+        <v>0.3576549891698069</v>
       </c>
       <c r="G2" t="n">
-        <v>1.863958995837703</v>
+        <v>1.679262767439537</v>
       </c>
       <c r="H2" t="n">
-        <v>1.013512725656204</v>
+        <v>0.9169179545369646</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02688155631029644</v>
+        <v>0.7984586344381434</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2374139989501246</v>
+        <v>1.779084302304914</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1174170745169767</v>
+        <v>0.5980426315655155</v>
       </c>
       <c r="L2" t="n">
-        <v>1.001922972456329</v>
+        <v>0.7078131564203649</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1224157624660164</v>
+        <v>0.6235025445101725</v>
       </c>
       <c r="N2" t="n">
-        <v>138.5680917733901</v>
+        <v>36.05637294931679</v>
       </c>
       <c r="O2" t="n">
-        <v>217.7950203898232</v>
+        <v>56.7772619720762</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_1</t>
+          <t>model_1_45_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9967095204266263</v>
+        <v>0.9142832397245897</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7211698497396821</v>
+        <v>0.748721103412713</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7167898315831907</v>
+        <v>0.7449074907987187</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9966330226842627</v>
+        <v>0.8776678065133457</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01380943886171973</v>
+        <v>0.359734906129296</v>
       </c>
       <c r="G3" t="n">
-        <v>1.864538498685533</v>
+        <v>1.680303138512117</v>
       </c>
       <c r="H3" t="n">
-        <v>1.013026350957843</v>
+        <v>0.9124511142994557</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02783214558801968</v>
+        <v>0.7920710170357798</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2354831641972783</v>
+        <v>1.788729216035398</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1175135688408778</v>
+        <v>0.5997790477578356</v>
       </c>
       <c r="L3" t="n">
-        <v>1.001926134384414</v>
+        <v>0.7061139647700219</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1225163647530568</v>
+        <v>0.6253128835346767</v>
       </c>
       <c r="N3" t="n">
-        <v>138.5648058902733</v>
+        <v>36.04477578129996</v>
       </c>
       <c r="O3" t="n">
-        <v>217.7917345067064</v>
+        <v>56.76566480405937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_2</t>
+          <t>model_1_45_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.996702490895777</v>
+        <v>0.9137612374695209</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7210833730414195</v>
+        <v>0.7485509591054114</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7169220700856124</v>
+        <v>0.7461475812442782</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9965158588054827</v>
+        <v>0.8786205999340355</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01383894029891891</v>
+        <v>0.3619256379257745</v>
       </c>
       <c r="G4" t="n">
-        <v>1.865116768765005</v>
+        <v>1.681440894278486</v>
       </c>
       <c r="H4" t="n">
-        <v>1.01255334150231</v>
+        <v>0.9080153826802646</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02880064695469692</v>
+        <v>0.7859019127939511</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2335720114391829</v>
+        <v>1.798412544244542</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1176390254078931</v>
+        <v>0.6016025581110627</v>
       </c>
       <c r="L4" t="n">
-        <v>1.00193024923174</v>
+        <v>0.704324242752643</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1226471622658608</v>
+        <v>0.6272140244988275</v>
       </c>
       <c r="N4" t="n">
-        <v>138.5605377994426</v>
+        <v>36.03263301670502</v>
       </c>
       <c r="O4" t="n">
-        <v>217.7874664158756</v>
+        <v>56.75352203946443</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_3</t>
+          <t>model_1_45_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9966937941581805</v>
+        <v>0.9132121217072295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7209970185943084</v>
+        <v>0.7483655096004856</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7170515835203984</v>
+        <v>0.7473785529251893</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9963964886402007</v>
+        <v>0.8795384901570704</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01387543864618356</v>
+        <v>0.3642301593118756</v>
       </c>
       <c r="G5" t="n">
-        <v>1.865694221350461</v>
+        <v>1.682680995971841</v>
       </c>
       <c r="H5" t="n">
-        <v>1.012090079455701</v>
+        <v>0.9036122683534846</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02978738595156029</v>
+        <v>0.7799587982158106</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2316796255347308</v>
+        <v>1.808133524604228</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1177940518285349</v>
+        <v>0.6035148376899077</v>
       </c>
       <c r="L5" t="n">
-        <v>1.001935340004968</v>
+        <v>0.7024415601390728</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1228087884821782</v>
+        <v>0.6292077137783083</v>
       </c>
       <c r="N5" t="n">
-        <v>138.55527001142</v>
+        <v>36.01993861072926</v>
       </c>
       <c r="O5" t="n">
-        <v>217.782198627853</v>
+        <v>56.74082763348866</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_4</t>
+          <t>model_1_45_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9966835541876889</v>
+        <v>0.9126349644429599</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7209108383864055</v>
+        <v>0.748163941469335</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7171779849939319</v>
+        <v>0.7485996270617324</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9962751009491242</v>
+        <v>0.8804196820759329</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01391841361177591</v>
+        <v>0.3666523648830704</v>
       </c>
       <c r="G6" t="n">
-        <v>1.866270508797532</v>
+        <v>1.684028882992981</v>
       </c>
       <c r="H6" t="n">
-        <v>1.01163794871405</v>
+        <v>0.8992445569690162</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03079080224273746</v>
+        <v>0.7742532961767805</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2298026140242837</v>
+        <v>1.817893975368307</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1179763264887321</v>
+        <v>0.6055182613952038</v>
       </c>
       <c r="L6" t="n">
-        <v>1.001941334134036</v>
+        <v>0.7004627352330053</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1229988229520206</v>
+        <v>0.6312964273783978</v>
       </c>
       <c r="N6" t="n">
-        <v>138.5490851904832</v>
+        <v>36.0066822289777</v>
       </c>
       <c r="O6" t="n">
-        <v>217.7760138069162</v>
+        <v>56.7275712517371</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_5</t>
+          <t>model_1_45_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9966717514700812</v>
+        <v>0.9120288563949885</v>
       </c>
       <c r="C7" t="n">
-        <v>0.720824830168213</v>
+        <v>0.7479453872328219</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7173013531127284</v>
+        <v>0.7498098641225781</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9961517045063496</v>
+        <v>0.8812624340741878</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01396794709270827</v>
+        <v>0.3691960707002366</v>
       </c>
       <c r="G7" t="n">
-        <v>1.866845646148616</v>
+        <v>1.685490356178893</v>
       </c>
       <c r="H7" t="n">
-        <v>1.01119666810641</v>
+        <v>0.8949156091759479</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03181082329969447</v>
+        <v>0.7687966832170893</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2279478035496586</v>
+        <v>1.827690085219572</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1181860697912756</v>
+        <v>0.607615067868002</v>
       </c>
       <c r="L7" t="n">
-        <v>1.001948243041904</v>
+        <v>0.6983846504971036</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1232174954611819</v>
+        <v>0.6334824992437308</v>
       </c>
       <c r="N7" t="n">
-        <v>138.5419801352841</v>
+        <v>35.99285483830099</v>
       </c>
       <c r="O7" t="n">
-        <v>217.7689087517171</v>
+        <v>56.7137438610604</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_6</t>
+          <t>model_1_45_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9966584982139031</v>
+        <v>0.9113929422315454</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7207390021811808</v>
+        <v>0.747709026182755</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7174218505898253</v>
+        <v>0.7510089983684214</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9960264596538437</v>
+        <v>0.8820650972803246</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01402356817371809</v>
+        <v>0.3718648664078376</v>
       </c>
       <c r="G8" t="n">
-        <v>1.867419578293102</v>
+        <v>1.687070903609033</v>
       </c>
       <c r="H8" t="n">
-        <v>1.010765655617679</v>
+        <v>0.890626375508365</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03284612370186758</v>
+        <v>0.7635996353762748</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2261081103844292</v>
+        <v>1.837522430735782</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1184211474936723</v>
+        <v>0.6098072370904084</v>
       </c>
       <c r="L8" t="n">
-        <v>1.00195600104552</v>
+        <v>0.6962043733652987</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1234625809080475</v>
+        <v>0.6357679936483509</v>
       </c>
       <c r="N8" t="n">
-        <v>138.534031847571</v>
+        <v>35.97844950609852</v>
       </c>
       <c r="O8" t="n">
-        <v>217.7609604640041</v>
+        <v>56.69933852885793</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_7</t>
+          <t>model_1_45_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9966437688873494</v>
+        <v>0.9107262451299916</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7206534199189154</v>
+        <v>0.7474538746507331</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7175390279573814</v>
+        <v>0.7521961760636962</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9958993477861317</v>
+        <v>0.8828258093554692</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01408538400632863</v>
+        <v>0.3746628515215258</v>
       </c>
       <c r="G9" t="n">
-        <v>1.867991867274941</v>
+        <v>1.688777103078529</v>
       </c>
       <c r="H9" t="n">
-        <v>1.010346518968265</v>
+        <v>0.886379909728885</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03389685724604482</v>
+        <v>0.7586742108428142</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2242869814692196</v>
+        <v>1.847388308279915</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1186818604771961</v>
+        <v>0.6120970932144064</v>
       </c>
       <c r="L9" t="n">
-        <v>1.001964623090332</v>
+        <v>0.6939185547313997</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1237343929830302</v>
+        <v>0.6381553336882032</v>
       </c>
       <c r="N9" t="n">
-        <v>138.5252352290607</v>
+        <v>35.96345744004037</v>
       </c>
       <c r="O9" t="n">
-        <v>217.7521638454937</v>
+        <v>56.68434646279977</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_8</t>
+          <t>model_1_45_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9966276820813043</v>
+        <v>0.9100277530681552</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7205679984483355</v>
+        <v>0.7471790232676008</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7176537941728997</v>
+        <v>0.7533705606721843</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9957704748325409</v>
+        <v>0.8835425205342258</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01415289688996999</v>
+        <v>0.3775942732818608</v>
       </c>
       <c r="G10" t="n">
-        <v>1.868563081042039</v>
+        <v>1.690615035543109</v>
       </c>
       <c r="H10" t="n">
-        <v>1.009936006869884</v>
+        <v>0.8821792040790548</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03496214829803173</v>
+        <v>0.7540336813460508</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2224815513740793</v>
+        <v>1.85728748293519</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1189659484473183</v>
+        <v>0.6144870000918334</v>
       </c>
       <c r="L10" t="n">
-        <v>1.001974039757285</v>
+        <v>0.6915237248051036</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1240305751661837</v>
+        <v>0.6406469838491915</v>
       </c>
       <c r="N10" t="n">
-        <v>138.5156718972806</v>
+        <v>35.94787002184513</v>
       </c>
       <c r="O10" t="n">
-        <v>217.7426005137136</v>
+        <v>56.66875904460453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_9</t>
+          <t>model_1_45_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9966102542706761</v>
+        <v>0.9092963908286941</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7204827904086742</v>
+        <v>0.7468833965076883</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7177657777380906</v>
+        <v>0.7545314449440955</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9956400130961373</v>
+        <v>0.8842129982848583</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01422603768297502</v>
+        <v>0.3806636441460153</v>
       </c>
       <c r="G11" t="n">
-        <v>1.8691328675956</v>
+        <v>1.69259189304788</v>
       </c>
       <c r="H11" t="n">
-        <v>1.009535448150376</v>
+        <v>0.8780267883503663</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03604057256429557</v>
+        <v>0.7496925019826534</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2206958173704232</v>
+        <v>1.867416288368231</v>
       </c>
       <c r="K11" t="n">
-        <v>0.119272954532765</v>
+        <v>0.6169794519641763</v>
       </c>
       <c r="L11" t="n">
-        <v>1.001984241402531</v>
+        <v>0.6890161971269511</v>
       </c>
       <c r="M11" t="n">
-        <v>0.124350651136278</v>
+        <v>0.6432455445578266</v>
       </c>
       <c r="N11" t="n">
-        <v>138.5053627075875</v>
+        <v>35.93167823507515</v>
       </c>
       <c r="O11" t="n">
-        <v>217.7322913240205</v>
+        <v>56.65256725783456</v>
       </c>
     </row>
   </sheetData>
